--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_2_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_2_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1620879.122698548</v>
+        <v>1579055.341029541</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584663</v>
+        <v>460545.8926584664</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8027535.569230373</v>
+        <v>8027535.569230371</v>
       </c>
     </row>
     <row r="11">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>21.85442600983729</v>
+        <v>75.08620022294134</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -703,16 +703,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -746,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>68.52491885454549</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>227.3836098481135</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -898,28 +898,28 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>103.0088977318019</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>190.1066023865956</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -986,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>224.5954722246805</v>
       </c>
       <c r="W6" t="n">
-        <v>231.0262884092281</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>68.21015448122991</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1177,31 +1177,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>178.1573130319831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1271,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>184.6308886574542</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>18.33312173982677</v>
       </c>
     </row>
     <row r="10">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>34.281625053271</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>67.94246130800204</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>105.9637990594094</v>
+        <v>6.45683482408856</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>159.6212195484502</v>
@@ -1517,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.136888730010115</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>57.49696426323582</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>43.3560697996877</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>117.889549819912</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>32.40336160972313</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1697,10 +1697,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>105.9637990594094</v>
@@ -1736,13 +1736,13 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S15" t="n">
-        <v>159.6212195484502</v>
+        <v>78.30557825330763</v>
       </c>
       <c r="T15" t="n">
-        <v>60.36693997173244</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>92.4784086463653</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,25 +1809,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>268.7418428881282</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,10 +1861,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
-        <v>327.0451232326991</v>
+        <v>23.79555938770899</v>
       </c>
       <c r="I17" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S17" t="n">
-        <v>142.3477915347738</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1922,13 +1922,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1943,7 +1943,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571426</v>
+        <v>48.95193388970121</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S18" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T18" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.8986597023843</v>
@@ -1991,7 +1991,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.136888730010115</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>88.59832967195071</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>120.3600344049706</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>183.2904017655925</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>85.36962732092874</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2174,7 +2174,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>38.20100533369732</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>105.9637990594094</v>
@@ -2213,7 +2213,7 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U21" t="n">
         <v>225.8986597023843</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>46.33643014449196</v>
       </c>
     </row>
     <row r="22">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>163.3565097727589</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,13 +2256,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>16.8378640993551</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2326,10 +2326,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>54.77722488326664</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>231.2022291438938</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2408,16 +2408,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6941370086349</v>
+        <v>45.56224815806302</v>
       </c>
       <c r="H24" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U24" t="n">
         <v>225.8986597023843</v>
@@ -2465,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>40.15097604665252</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>50.15718953603345</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>268.9755074231831</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2563,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>63.25920448657997</v>
+        <v>94.71074901882623</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2639,19 +2639,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>24.64815776426665</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
         <v>67.03858805571426</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>159.6212195484502</v>
+        <v>140.5207328220543</v>
       </c>
       <c r="T27" t="n">
         <v>197.5472709665096</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2772,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>81.39634000163853</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>16.60419956430028</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>27.83416391026631</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>28.253768295171</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2882,16 +2882,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6941370086349</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="H30" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2933,13 +2933,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>94.29868824106237</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2952,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>92.96858446131027</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>268.9755074231831</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,16 +3031,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>66.97649427705996</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>34.66278115984133</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3119,13 +3119,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>6.45683482408856</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S33" t="n">
         <v>159.6212195484502</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>156.8482076906877</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>16.83786409935511</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>14.78349015603104</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>172.6155356847355</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3347,13 +3347,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -3362,7 +3362,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H36" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>67.03858805571426</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>159.6212195484502</v>
+        <v>135.0538282965059</v>
       </c>
       <c r="T36" t="n">
         <v>197.5472709665096</v>
@@ -3413,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.2487855355438205</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3468,28 +3468,28 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>74.54211823523698</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>16.83786409935511</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>152.9376416850984</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,10 +3520,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
-        <v>327.0451232326991</v>
+        <v>319.6665097099691</v>
       </c>
       <c r="I38" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3587,7 +3587,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3596,13 +3596,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6941370086349</v>
+        <v>6.45683482408856</v>
       </c>
       <c r="H39" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>49.88807204227309</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>16.83786409935511</v>
       </c>
       <c r="X40" t="n">
-        <v>16.83786409935544</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>229.6244482252473</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006111</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S41" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>149.025222227215</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3818,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>157.6327118142332</v>
       </c>
       <c r="C42" t="n">
-        <v>52.28744435919852</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -3836,10 +3836,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>159.6212195484502</v>
@@ -3900,16 +3900,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>93.9814990849484</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>268.7418428881282</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3982,13 +3982,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>126.7094536836758</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>73.62980964006111</v>
+        <v>54.77722488326664</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4067,16 +4067,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4109,13 +4109,13 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T45" t="n">
-        <v>67.26886741877343</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U45" t="n">
         <v>225.8986597023843</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>15.76488010369929</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>43.26585203414596</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>752.9257720901863</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C2" t="n">
-        <v>752.9257720901863</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D2" t="n">
-        <v>752.9257720901863</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E2" t="n">
-        <v>752.9257720901863</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F2" t="n">
-        <v>730.8505943024719</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
-        <v>487.4018176583718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>752.9257720901863</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>752.9257720901863</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V2" t="n">
-        <v>752.9257720901863</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W2" t="n">
-        <v>752.9257720901863</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X2" t="n">
-        <v>752.9257720901863</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y2" t="n">
-        <v>752.9257720901863</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223.7040404982626</v>
+        <v>325.807288741569</v>
       </c>
       <c r="C3" t="n">
-        <v>223.7040404982626</v>
+        <v>325.807288741569</v>
       </c>
       <c r="D3" t="n">
-        <v>223.7040404982626</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E3" t="n">
-        <v>223.7040404982626</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4415,19 +4415,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>894.8400657585701</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U3" t="n">
-        <v>666.6164474949592</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V3" t="n">
-        <v>431.4643392632165</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W3" t="n">
-        <v>431.4643392632165</v>
+        <v>325.807288741569</v>
       </c>
       <c r="X3" t="n">
-        <v>431.4643392632165</v>
+        <v>325.807288741569</v>
       </c>
       <c r="Y3" t="n">
-        <v>223.7040404982626</v>
+        <v>325.807288741569</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4512,28 +4512,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>285.1327311248648</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C5" t="n">
-        <v>41.68395448076474</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D5" t="n">
-        <v>41.68395448076474</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E5" t="n">
-        <v>41.68395448076474</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>772.0302844130649</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X5" t="n">
-        <v>528.5815077689649</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y5" t="n">
-        <v>285.1327311248648</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,19 +4649,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L6" t="n">
-        <v>248.2447175439888</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>461.2466632505798</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>461.2466632505798</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="W6" t="n">
-        <v>227.8867759685313</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="X6" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
     </row>
     <row r="7">
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53.75394372784808</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C8" t="n">
-        <v>53.75394372784808</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D8" t="n">
-        <v>53.75394372784808</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E8" t="n">
-        <v>53.75394372784808</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>115.7075889192809</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>100.2502782979324</v>
       </c>
       <c r="H8" t="n">
         <v>31.35113235729608</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W8" t="n">
-        <v>720.6083788665362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X8" t="n">
-        <v>477.1596022224361</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y8" t="n">
-        <v>297.2027203719481</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>193.7341723913397</v>
+        <v>466.9379658470897</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>466.9379658470897</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4543050195419</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4919,16 +4919,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>777.5613083818946</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W9" t="n">
-        <v>777.5613083818946</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X9" t="n">
-        <v>569.7098081763618</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y9" t="n">
-        <v>361.9495094114078</v>
+        <v>466.9379658470897</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1592.28953067257</v>
+        <v>1406.467763531879</v>
       </c>
       <c r="C11" t="n">
-        <v>1592.28953067257</v>
+        <v>1406.467763531879</v>
       </c>
       <c r="D11" t="n">
-        <v>1592.28953067257</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="E11" t="n">
-        <v>1206.501278074326</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F11" t="n">
-        <v>795.5153732847182</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G11" t="n">
-        <v>377.243605767603</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H11" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K11" t="n">
         <v>392.9020949275675</v>
       </c>
       <c r="L11" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M11" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N11" t="n">
         <v>1610.799342072557</v>
@@ -5065,28 +5065,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S11" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T11" t="n">
-        <v>2276.121073286255</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U11" t="n">
-        <v>2276.121073286255</v>
+        <v>1796.607095507691</v>
       </c>
       <c r="V11" t="n">
-        <v>1945.058185942684</v>
+        <v>1796.607095507691</v>
       </c>
       <c r="W11" t="n">
-        <v>1592.28953067257</v>
+        <v>1796.607095507691</v>
       </c>
       <c r="X11" t="n">
-        <v>1592.28953067257</v>
+        <v>1796.607095507691</v>
       </c>
       <c r="Y11" t="n">
-        <v>1592.28953067257</v>
+        <v>1406.467763531879</v>
       </c>
     </row>
     <row r="12">
@@ -5096,31 +5096,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.8792202047736</v>
+        <v>682.5765037404603</v>
       </c>
       <c r="C12" t="n">
-        <v>814.4261909236466</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="D12" t="n">
-        <v>665.4917812623953</v>
+        <v>359.1890647980821</v>
       </c>
       <c r="E12" t="n">
-        <v>506.2543262569397</v>
+        <v>199.9516097926266</v>
       </c>
       <c r="F12" t="n">
-        <v>359.7197682838247</v>
+        <v>53.41705181951156</v>
       </c>
       <c r="G12" t="n">
-        <v>221.6448824165167</v>
+        <v>53.41705181951156</v>
       </c>
       <c r="H12" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I12" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K12" t="n">
         <v>121.6684232076319</v>
@@ -5144,28 +5144,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R12" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S12" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T12" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U12" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V12" t="n">
-        <v>1460.197257673872</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W12" t="n">
-        <v>1205.95990094567</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X12" t="n">
-        <v>998.1084007401373</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y12" t="n">
-        <v>988.8792202047736</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>549.6908317562741</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C13" t="n">
-        <v>549.6908317562741</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6908317562741</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E13" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F13" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G13" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H13" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J13" t="n">
         <v>46.89499644164432</v>
@@ -5229,22 +5229,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T13" t="n">
-        <v>549.6908317562741</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U13" t="n">
-        <v>549.6908317562741</v>
+        <v>90.68900634031877</v>
       </c>
       <c r="V13" t="n">
-        <v>549.6908317562741</v>
+        <v>90.68900634031877</v>
       </c>
       <c r="W13" t="n">
-        <v>549.6908317562741</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X13" t="n">
-        <v>549.6908317562741</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y13" t="n">
-        <v>549.6908317562741</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.89499644164432</v>
+        <v>876.152668748367</v>
       </c>
       <c r="C14" t="n">
-        <v>46.89499644164432</v>
+        <v>876.152668748367</v>
       </c>
       <c r="D14" t="n">
-        <v>46.89499644164432</v>
+        <v>876.152668748367</v>
       </c>
       <c r="E14" t="n">
-        <v>46.89499644164432</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F14" t="n">
-        <v>46.89499644164432</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G14" t="n">
         <v>46.89499644164432</v>
@@ -5278,16 +5278,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K14" t="n">
         <v>392.9020949275675</v>
       </c>
       <c r="L14" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M14" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N14" t="n">
         <v>1610.799342072557</v>
@@ -5317,13 +5317,13 @@
         <v>1282.349095302096</v>
       </c>
       <c r="W14" t="n">
-        <v>929.5804400319823</v>
+        <v>1249.618427009447</v>
       </c>
       <c r="X14" t="n">
-        <v>556.1146817709025</v>
+        <v>876.152668748367</v>
       </c>
       <c r="Y14" t="n">
-        <v>165.9753497950908</v>
+        <v>876.152668748367</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.8792202047736</v>
+        <v>704.2697763643505</v>
       </c>
       <c r="C15" t="n">
-        <v>814.4261909236466</v>
+        <v>529.8167470832235</v>
       </c>
       <c r="D15" t="n">
-        <v>665.4917812623953</v>
+        <v>380.8823374219722</v>
       </c>
       <c r="E15" t="n">
-        <v>506.2543262569397</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="F15" t="n">
-        <v>359.7197682838247</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G15" t="n">
         <v>221.6448824165167</v>
@@ -5357,25 +5357,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K15" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L15" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M15" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N15" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O15" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P15" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
@@ -5384,25 +5384,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S15" t="n">
-        <v>2123.072528197426</v>
+        <v>2205.209539606662</v>
       </c>
       <c r="T15" t="n">
-        <v>2062.095821155272</v>
+        <v>2005.666841660692</v>
       </c>
       <c r="U15" t="n">
-        <v>2062.095821155272</v>
+        <v>1777.48637731485</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.94371292353</v>
+        <v>1542.334269083107</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.706356195328</v>
+        <v>1288.096912354905</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.854855989795</v>
+        <v>1080.245412149372</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.094557224842</v>
+        <v>872.4851133844186</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>195.7305522826212</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C16" t="n">
-        <v>195.7305522826212</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D16" t="n">
-        <v>195.7305522826212</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E16" t="n">
-        <v>195.7305522826212</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J16" t="n">
         <v>46.89499644164432</v>
@@ -5457,31 +5457,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q16" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R16" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S16" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T16" t="n">
-        <v>195.7305522826212</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U16" t="n">
-        <v>195.7305522826212</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V16" t="n">
-        <v>195.7305522826212</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W16" t="n">
-        <v>195.7305522826212</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X16" t="n">
-        <v>195.7305522826212</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y16" t="n">
-        <v>195.7305522826212</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2126.590628976322</v>
+        <v>900.1885873218105</v>
       </c>
       <c r="C17" t="n">
-        <v>1757.628112035911</v>
+        <v>900.1885873218105</v>
       </c>
       <c r="D17" t="n">
-        <v>1757.628112035911</v>
+        <v>900.1885873218105</v>
       </c>
       <c r="E17" t="n">
-        <v>1371.839859437666</v>
+        <v>900.1885873218105</v>
       </c>
       <c r="F17" t="n">
-        <v>960.8539546480588</v>
+        <v>489.2026825322029</v>
       </c>
       <c r="G17" t="n">
-        <v>542.5821871309436</v>
+        <v>70.93091501508775</v>
       </c>
       <c r="H17" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I17" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L17" t="n">
         <v>762.591673824455</v>
@@ -5542,25 +5542,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S17" t="n">
-        <v>2126.590628976322</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T17" t="n">
-        <v>2126.590628976322</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U17" t="n">
-        <v>2126.590628976322</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="V17" t="n">
-        <v>2126.590628976322</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="W17" t="n">
-        <v>2126.590628976322</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="X17" t="n">
-        <v>2126.590628976322</v>
+        <v>1676.927759361744</v>
       </c>
       <c r="Y17" t="n">
-        <v>2126.590628976322</v>
+        <v>1286.788427385932</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.8792202047736</v>
+        <v>821.6754629010848</v>
       </c>
       <c r="C18" t="n">
-        <v>814.4261909236466</v>
+        <v>647.2224336199578</v>
       </c>
       <c r="D18" t="n">
-        <v>665.4917812623953</v>
+        <v>647.2224336199578</v>
       </c>
       <c r="E18" t="n">
-        <v>506.2543262569397</v>
+        <v>487.9849786145023</v>
       </c>
       <c r="F18" t="n">
-        <v>359.7197682838247</v>
+        <v>341.4504206413873</v>
       </c>
       <c r="G18" t="n">
-        <v>221.6448824165167</v>
+        <v>203.3755347740793</v>
       </c>
       <c r="H18" t="n">
-        <v>114.6107419524668</v>
+        <v>96.34139431002939</v>
       </c>
       <c r="I18" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K18" t="n">
-        <v>121.6684232076319</v>
+        <v>273.126860749845</v>
       </c>
       <c r="L18" t="n">
-        <v>491.2196383161158</v>
+        <v>642.6780758583288</v>
       </c>
       <c r="M18" t="n">
-        <v>974.4476973832902</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N18" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O18" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P18" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q18" t="n">
         <v>2344.749822082216</v>
@@ -5624,22 +5624,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T18" t="n">
-        <v>1923.529830251457</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="U18" t="n">
-        <v>1695.349365905614</v>
+        <v>1894.892063851584</v>
       </c>
       <c r="V18" t="n">
-        <v>1460.197257673872</v>
+        <v>1659.739955619841</v>
       </c>
       <c r="W18" t="n">
-        <v>1205.95990094567</v>
+        <v>1405.50259889164</v>
       </c>
       <c r="X18" t="n">
-        <v>998.1084007401373</v>
+        <v>1197.651098686107</v>
       </c>
       <c r="Y18" t="n">
-        <v>988.8792202047736</v>
+        <v>989.8907999211528</v>
       </c>
     </row>
     <row r="19">
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822332</v>
       </c>
       <c r="C19" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822332</v>
       </c>
       <c r="D19" t="n">
-        <v>46.89499644164432</v>
+        <v>168.4707887698975</v>
       </c>
       <c r="E19" t="n">
         <v>46.89499644164432</v>
@@ -5679,46 +5679,46 @@
         <v>87.46721626702976</v>
       </c>
       <c r="L19" t="n">
-        <v>194.9121237200978</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N19" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O19" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P19" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q19" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R19" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S19" t="n">
-        <v>391.0727469424309</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T19" t="n">
-        <v>391.0727469424309</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U19" t="n">
-        <v>391.0727469424309</v>
+        <v>318.5874281822332</v>
       </c>
       <c r="V19" t="n">
-        <v>136.388258736544</v>
+        <v>318.5874281822332</v>
       </c>
       <c r="W19" t="n">
-        <v>136.388258736544</v>
+        <v>318.5874281822332</v>
       </c>
       <c r="X19" t="n">
-        <v>136.388258736544</v>
+        <v>318.5874281822332</v>
       </c>
       <c r="Y19" t="n">
-        <v>136.388258736544</v>
+        <v>318.5874281822332</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1532.283461762205</v>
+        <v>959.2650319540514</v>
       </c>
       <c r="C20" t="n">
-        <v>1532.283461762205</v>
+        <v>590.3025150136398</v>
       </c>
       <c r="D20" t="n">
-        <v>1174.017763155455</v>
+        <v>232.0368164068893</v>
       </c>
       <c r="E20" t="n">
-        <v>788.2295105572106</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F20" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G20" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H20" t="n">
         <v>46.89499644164432</v>
@@ -5758,10 +5758,10 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244551</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M20" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N20" t="n">
         <v>1610.799342072557</v>
@@ -5776,28 +5776,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S20" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T20" t="n">
-        <v>2258.517875293399</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U20" t="n">
-        <v>2258.517875293399</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="V20" t="n">
-        <v>2258.517875293399</v>
+        <v>1719.330630279253</v>
       </c>
       <c r="W20" t="n">
-        <v>1905.749220023285</v>
+        <v>1719.330630279253</v>
       </c>
       <c r="X20" t="n">
-        <v>1532.283461762205</v>
+        <v>1345.864872018173</v>
       </c>
       <c r="Y20" t="n">
-        <v>1532.283461762205</v>
+        <v>1345.864872018173</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>821.6754629010848</v>
+        <v>783.0885888266431</v>
       </c>
       <c r="C21" t="n">
-        <v>647.2224336199578</v>
+        <v>608.6355595455161</v>
       </c>
       <c r="D21" t="n">
-        <v>498.2880239587065</v>
+        <v>459.7011498842648</v>
       </c>
       <c r="E21" t="n">
-        <v>339.050568953251</v>
+        <v>300.4636948788093</v>
       </c>
       <c r="F21" t="n">
-        <v>192.516010980136</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="G21" t="n">
         <v>153.9291369056942</v>
@@ -5840,16 +5840,16 @@
         <v>645.6158192373777</v>
       </c>
       <c r="M21" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N21" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592726</v>
       </c>
       <c r="O21" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P21" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q21" t="n">
         <v>2344.749822082216</v>
@@ -5861,22 +5861,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T21" t="n">
-        <v>2123.072528197426</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U21" t="n">
-        <v>1894.892063851584</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V21" t="n">
-        <v>1659.739955619841</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W21" t="n">
-        <v>1405.50259889164</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X21" t="n">
-        <v>1197.651098686107</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y21" t="n">
-        <v>989.8907999211528</v>
+        <v>951.3039258467111</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2303.765562347826</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C22" t="n">
-        <v>2138.758986819787</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D22" t="n">
-        <v>2138.758986819787</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E22" t="n">
-        <v>2138.758986819787</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F22" t="n">
-        <v>2138.758986819787</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G22" t="n">
-        <v>2138.758986819787</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H22" t="n">
-        <v>1979.7824241432</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I22" t="n">
-        <v>1839.299266942299</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K22" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L22" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M22" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N22" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O22" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q22" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R22" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S22" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T22" t="n">
-        <v>2303.765562347826</v>
+        <v>590.7606299016081</v>
       </c>
       <c r="U22" t="n">
-        <v>2303.765562347826</v>
+        <v>301.5794846475312</v>
       </c>
       <c r="V22" t="n">
-        <v>2303.765562347826</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W22" t="n">
-        <v>2303.765562347826</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X22" t="n">
-        <v>2303.765562347826</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y22" t="n">
-        <v>2303.765562347826</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1159.911464587051</v>
+        <v>1185.109116778414</v>
       </c>
       <c r="C23" t="n">
-        <v>790.948947646639</v>
+        <v>816.1465998380024</v>
       </c>
       <c r="D23" t="n">
-        <v>432.6832490398886</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="E23" t="n">
-        <v>46.89499644164432</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F23" t="n">
         <v>46.89499644164432</v>
@@ -5989,13 +5989,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L23" t="n">
-        <v>762.5916738244553</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M23" t="n">
         <v>1190.549107376119</v>
@@ -6016,25 +6016,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S23" t="n">
-        <v>2289.419291897098</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T23" t="n">
-        <v>2289.419291897098</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="U23" t="n">
-        <v>2289.419291897098</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="V23" t="n">
-        <v>2289.419291897098</v>
+        <v>1928.01710402434</v>
       </c>
       <c r="W23" t="n">
-        <v>1936.650636626984</v>
+        <v>1575.248448754226</v>
       </c>
       <c r="X23" t="n">
-        <v>1936.650636626984</v>
+        <v>1575.248448754226</v>
       </c>
       <c r="Y23" t="n">
-        <v>1546.511304651172</v>
+        <v>1185.109116778414</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.8792202047736</v>
+        <v>682.5765037404603</v>
       </c>
       <c r="C24" t="n">
-        <v>814.4261909236466</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="D24" t="n">
-        <v>665.4917812623953</v>
+        <v>359.1890647980821</v>
       </c>
       <c r="E24" t="n">
-        <v>506.2543262569397</v>
+        <v>199.9516097926266</v>
       </c>
       <c r="F24" t="n">
-        <v>359.7197682838247</v>
+        <v>199.9516097926266</v>
       </c>
       <c r="G24" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H24" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I24" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J24" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K24" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L24" t="n">
-        <v>645.6158192373777</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M24" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N24" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O24" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P24" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q24" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S24" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T24" t="n">
-        <v>2123.072528197426</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U24" t="n">
-        <v>1894.892063851584</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V24" t="n">
-        <v>1659.739955619841</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W24" t="n">
-        <v>1405.50259889164</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X24" t="n">
-        <v>1197.651098686107</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y24" t="n">
-        <v>1157.094557224842</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.55882425581953</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C25" t="n">
-        <v>97.55882425581953</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D25" t="n">
-        <v>97.55882425581953</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E25" t="n">
-        <v>97.55882425581953</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F25" t="n">
-        <v>97.55882425581953</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G25" t="n">
-        <v>97.55882425581953</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H25" t="n">
-        <v>97.55882425581953</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I25" t="n">
         <v>46.89499644164432</v>
@@ -6150,7 +6150,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K25" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L25" t="n">
         <v>194.9121237200978</v>
@@ -6180,19 +6180,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U25" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V25" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W25" t="n">
-        <v>318.3514033993496</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X25" t="n">
-        <v>318.3514033993496</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.55882425581953</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1164.47789022513</v>
+        <v>801.6457659803002</v>
       </c>
       <c r="C26" t="n">
-        <v>795.5153732847182</v>
+        <v>432.6832490398886</v>
       </c>
       <c r="D26" t="n">
-        <v>795.5153732847182</v>
+        <v>432.6832490398886</v>
       </c>
       <c r="E26" t="n">
-        <v>795.5153732847182</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F26" t="n">
-        <v>795.5153732847182</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G26" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H26" t="n">
         <v>46.89499644164432</v>
@@ -6226,16 +6226,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L26" t="n">
-        <v>762.5916738244551</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M26" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N26" t="n">
         <v>1610.799342072557</v>
@@ -6256,22 +6256,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="T26" t="n">
-        <v>2280.851635732135</v>
+        <v>2249.082398830877</v>
       </c>
       <c r="U26" t="n">
-        <v>2280.851635732135</v>
+        <v>2249.082398830877</v>
       </c>
       <c r="V26" t="n">
-        <v>2280.851635732135</v>
+        <v>1918.019511487306</v>
       </c>
       <c r="W26" t="n">
-        <v>1928.082980462021</v>
+        <v>1565.250856217192</v>
       </c>
       <c r="X26" t="n">
-        <v>1554.617222200942</v>
+        <v>1191.785097956112</v>
       </c>
       <c r="Y26" t="n">
-        <v>1164.47789022513</v>
+        <v>801.6457659803002</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>622.1327649551154</v>
+        <v>701.8699246762143</v>
       </c>
       <c r="C27" t="n">
-        <v>447.6797356739884</v>
+        <v>527.4168953950873</v>
       </c>
       <c r="D27" t="n">
-        <v>298.7453260127371</v>
+        <v>527.4168953950873</v>
       </c>
       <c r="E27" t="n">
-        <v>139.5078710072816</v>
+        <v>368.1794403896317</v>
       </c>
       <c r="F27" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G27" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H27" t="n">
         <v>114.6107419524668</v>
@@ -6305,52 +6305,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J27" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K27" t="n">
-        <v>336.0641406922996</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L27" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.568096156132</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O27" t="n">
-        <v>2102.280527752458</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P27" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R27" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S27" t="n">
-        <v>2123.072528197426</v>
+        <v>2202.809687918525</v>
       </c>
       <c r="T27" t="n">
-        <v>1923.529830251457</v>
+        <v>2003.266989972556</v>
       </c>
       <c r="U27" t="n">
-        <v>1695.349365905614</v>
+        <v>1775.086525626713</v>
       </c>
       <c r="V27" t="n">
-        <v>1460.197257673872</v>
+        <v>1539.934417394971</v>
       </c>
       <c r="W27" t="n">
-        <v>1205.95990094567</v>
+        <v>1285.697060666769</v>
       </c>
       <c r="X27" t="n">
-        <v>998.1084007401373</v>
+        <v>1077.845560461236</v>
       </c>
       <c r="Y27" t="n">
-        <v>790.3481019751835</v>
+        <v>870.0852616962823</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2080.882831997796</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C28" t="n">
-        <v>2080.882831997796</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D28" t="n">
-        <v>1930.76619258546</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E28" t="n">
-        <v>1930.76619258546</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J28" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K28" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L28" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M28" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N28" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O28" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U28" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V28" t="n">
-        <v>2344.749822082216</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="W28" t="n">
-        <v>2262.531296828036</v>
+        <v>63.66691519346278</v>
       </c>
       <c r="X28" t="n">
-        <v>2262.531296828036</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y28" t="n">
-        <v>2262.531296828036</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>240.348894886062</v>
+        <v>1273.654345582891</v>
       </c>
       <c r="C29" t="n">
-        <v>212.2335778049849</v>
+        <v>904.6918286424791</v>
       </c>
       <c r="D29" t="n">
-        <v>212.2335778049849</v>
+        <v>904.6918286424791</v>
       </c>
       <c r="E29" t="n">
-        <v>212.2335778049849</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F29" t="n">
-        <v>212.2335778049849</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G29" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H29" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I29" t="n">
         <v>46.89499644164432</v>
@@ -6487,28 +6487,28 @@
         <v>2344.749822082217</v>
       </c>
       <c r="R29" t="n">
-        <v>2344.749822082217</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S29" t="n">
-        <v>2161.554709220193</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T29" t="n">
-        <v>1941.571949851771</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U29" t="n">
-        <v>1687.785527736638</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="V29" t="n">
-        <v>1356.722640393068</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="W29" t="n">
-        <v>1003.953985122954</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="X29" t="n">
-        <v>630.4882268618737</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="Y29" t="n">
-        <v>240.348894886062</v>
+        <v>1660.254185647012</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C30" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D30" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E30" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F30" t="n">
-        <v>359.7197682838247</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="G30" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H30" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I30" t="n">
         <v>46.89499644164432</v>
@@ -6548,16 +6548,16 @@
         <v>276.0646041288937</v>
       </c>
       <c r="L30" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M30" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N30" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O30" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P30" t="n">
         <v>2193.291384540003</v>
@@ -6581,13 +6581,13 @@
         <v>1460.197257673872</v>
       </c>
       <c r="W30" t="n">
-        <v>1460.197257673872</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X30" t="n">
-        <v>1252.345757468339</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y30" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2344.749822082216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C31" t="n">
-        <v>2175.813639154309</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D31" t="n">
-        <v>2025.696999741974</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E31" t="n">
-        <v>1877.783906159581</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K31" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L31" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M31" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N31" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O31" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U31" t="n">
-        <v>2344.749822082216</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V31" t="n">
-        <v>2344.749822082216</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W31" t="n">
-        <v>2344.749822082216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X31" t="n">
-        <v>2344.749822082216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y31" t="n">
-        <v>2344.749822082216</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>841.7762365110893</v>
+        <v>1201.934852436247</v>
       </c>
       <c r="C32" t="n">
-        <v>472.8137195706776</v>
+        <v>1201.934852436247</v>
       </c>
       <c r="D32" t="n">
-        <v>114.5480209639271</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="E32" t="n">
-        <v>114.5480209639271</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F32" t="n">
         <v>46.89499644164432</v>
@@ -6724,28 +6724,28 @@
         <v>2344.749822082217</v>
       </c>
       <c r="R32" t="n">
-        <v>2344.749822082217</v>
+        <v>2309.736911819751</v>
       </c>
       <c r="S32" t="n">
-        <v>2344.749822082217</v>
+        <v>2309.736911819751</v>
       </c>
       <c r="T32" t="n">
-        <v>2344.749822082217</v>
+        <v>2309.736911819751</v>
       </c>
       <c r="U32" t="n">
-        <v>2344.749822082217</v>
+        <v>2309.736911819751</v>
       </c>
       <c r="V32" t="n">
-        <v>2344.749822082217</v>
+        <v>1978.67402447618</v>
       </c>
       <c r="W32" t="n">
-        <v>1991.981166812103</v>
+        <v>1978.67402447618</v>
       </c>
       <c r="X32" t="n">
-        <v>1618.515408551023</v>
+        <v>1978.67402447618</v>
       </c>
       <c r="Y32" t="n">
-        <v>1228.376076575211</v>
+        <v>1588.534692500368</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>682.5765037404603</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C33" t="n">
-        <v>508.1234744593334</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D33" t="n">
-        <v>359.1890647980821</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E33" t="n">
-        <v>199.9516097926266</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F33" t="n">
-        <v>53.41705181951156</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G33" t="n">
-        <v>53.41705181951156</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H33" t="n">
         <v>46.89499644164432</v>
@@ -6779,52 +6779,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J33" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K33" t="n">
-        <v>336.0641406922996</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L33" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.568096156132</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O33" t="n">
-        <v>2102.280527752458</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P33" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q33" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R33" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S33" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T33" t="n">
-        <v>1983.973569036802</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U33" t="n">
-        <v>1755.793104690959</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V33" t="n">
-        <v>1520.640996459217</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W33" t="n">
-        <v>1266.403639731015</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X33" t="n">
-        <v>1058.552139525482</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y33" t="n">
-        <v>850.7918407605284</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1942.308778108447</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C34" t="n">
-        <v>1942.308778108447</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D34" t="n">
-        <v>1942.308778108447</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E34" t="n">
-        <v>1942.308778108447</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F34" t="n">
-        <v>1942.308778108447</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G34" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H34" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I34" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J34" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K34" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L34" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M34" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N34" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O34" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P34" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q34" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R34" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S34" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T34" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U34" t="n">
-        <v>2344.749822082216</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V34" t="n">
-        <v>2344.749822082216</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="W34" t="n">
-        <v>2344.749822082216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X34" t="n">
-        <v>2344.749822082216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y34" t="n">
-        <v>2123.957242938686</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1009.007735192837</v>
+        <v>841.7762365110889</v>
       </c>
       <c r="C35" t="n">
-        <v>1009.007735192837</v>
+        <v>472.8137195706772</v>
       </c>
       <c r="D35" t="n">
-        <v>1009.007735192837</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="E35" t="n">
-        <v>623.2194825945925</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F35" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G35" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H35" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I35" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J35" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L35" t="n">
-        <v>762.5916738244551</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M35" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N35" t="n">
         <v>1610.799342072557</v>
@@ -6961,28 +6961,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S35" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T35" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U35" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V35" t="n">
-        <v>1536.135517417229</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W35" t="n">
-        <v>1183.366862147115</v>
+        <v>1991.981166812102</v>
       </c>
       <c r="X35" t="n">
-        <v>1009.007735192837</v>
+        <v>1618.515408551022</v>
       </c>
       <c r="Y35" t="n">
-        <v>1009.007735192837</v>
+        <v>1228.376076575211</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>829.641765199318</v>
+        <v>707.3920504595965</v>
       </c>
       <c r="C36" t="n">
-        <v>655.188735918191</v>
+        <v>707.3920504595965</v>
       </c>
       <c r="D36" t="n">
-        <v>506.2543262569397</v>
+        <v>558.4576407983452</v>
       </c>
       <c r="E36" t="n">
-        <v>506.2543262569397</v>
+        <v>399.2201857928898</v>
       </c>
       <c r="F36" t="n">
-        <v>359.7197682838247</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="G36" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H36" t="n">
         <v>114.6107419524668</v>
@@ -7016,16 +7016,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J36" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K36" t="n">
-        <v>336.0641406922996</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L36" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N36" t="n">
         <v>1637.630816213677</v>
@@ -7040,28 +7040,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R36" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S36" t="n">
-        <v>2123.072528197426</v>
+        <v>2208.331813701907</v>
       </c>
       <c r="T36" t="n">
-        <v>1923.529830251457</v>
+        <v>2008.789115755938</v>
       </c>
       <c r="U36" t="n">
-        <v>1695.349365905614</v>
+        <v>1780.608651410095</v>
       </c>
       <c r="V36" t="n">
-        <v>1460.197257673872</v>
+        <v>1545.456543178353</v>
       </c>
       <c r="W36" t="n">
-        <v>1205.95990094567</v>
+        <v>1291.219186450151</v>
       </c>
       <c r="X36" t="n">
-        <v>998.1084007401373</v>
+        <v>1083.367686244618</v>
       </c>
       <c r="Y36" t="n">
-        <v>997.857102219386</v>
+        <v>875.6073874796646</v>
       </c>
     </row>
     <row r="37">
@@ -7116,25 +7116,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q37" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R37" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S37" t="n">
-        <v>350.0884872080407</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T37" t="n">
-        <v>122.1900653661261</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U37" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V37" t="n">
-        <v>46.89499644164432</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="W37" t="n">
-        <v>46.89499644164432</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="X37" t="n">
         <v>46.89499644164432</v>
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2270.376276991246</v>
+        <v>1568.010650042283</v>
       </c>
       <c r="C38" t="n">
-        <v>2115.893810642661</v>
+        <v>1199.048133101871</v>
       </c>
       <c r="D38" t="n">
-        <v>1757.628112035911</v>
+        <v>1199.048133101871</v>
       </c>
       <c r="E38" t="n">
-        <v>1371.839859437666</v>
+        <v>1199.048133101871</v>
       </c>
       <c r="F38" t="n">
-        <v>960.8539546480588</v>
+        <v>788.0622283122636</v>
       </c>
       <c r="G38" t="n">
-        <v>542.5821871309436</v>
+        <v>369.7904607951485</v>
       </c>
       <c r="H38" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I38" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L38" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M38" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N38" t="n">
         <v>1610.799342072557</v>
@@ -7198,28 +7198,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R38" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S38" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T38" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U38" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V38" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W38" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X38" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y38" t="n">
-        <v>2270.376276991246</v>
+        <v>1954.610490106405</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>839.9448105435223</v>
+        <v>682.5765037404603</v>
       </c>
       <c r="C39" t="n">
-        <v>665.4917812623953</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="D39" t="n">
-        <v>665.4917812623953</v>
+        <v>359.1890647980821</v>
       </c>
       <c r="E39" t="n">
-        <v>506.2543262569397</v>
+        <v>199.9516097926266</v>
       </c>
       <c r="F39" t="n">
-        <v>359.7197682838247</v>
+        <v>53.41705181951156</v>
       </c>
       <c r="G39" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H39" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I39" t="n">
         <v>46.89499644164432</v>
@@ -7265,13 +7265,13 @@
         <v>1188.843414867958</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.568096156132</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O39" t="n">
-        <v>2102.280527752458</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P39" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q39" t="n">
         <v>2344.749822082216</v>
@@ -7298,7 +7298,7 @@
         <v>1058.552139525482</v>
       </c>
       <c r="Y39" t="n">
-        <v>1008.16014756359</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K40" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L40" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M40" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N40" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O40" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U40" t="n">
-        <v>2055.568676828139</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V40" t="n">
-        <v>1800.884188622252</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="W40" t="n">
-        <v>1800.884188622252</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1159.911464587051</v>
+        <v>1477.059072784988</v>
       </c>
       <c r="C41" t="n">
-        <v>790.948947646639</v>
+        <v>1108.096555844576</v>
       </c>
       <c r="D41" t="n">
-        <v>432.6832490398886</v>
+        <v>1108.096555844576</v>
       </c>
       <c r="E41" t="n">
-        <v>46.89499644164432</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F41" t="n">
-        <v>46.89499644164432</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G41" t="n">
         <v>46.89499644164432</v>
@@ -7411,16 +7411,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J41" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L41" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M41" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N41" t="n">
         <v>1610.799342072557</v>
@@ -7441,22 +7441,22 @@
         <v>2087.181164129222</v>
       </c>
       <c r="T41" t="n">
-        <v>2087.181164129222</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U41" t="n">
-        <v>2087.181164129222</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="V41" t="n">
-        <v>2087.181164129222</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="W41" t="n">
-        <v>2087.181164129222</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="X41" t="n">
-        <v>1936.650636626984</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="Y41" t="n">
-        <v>1546.511304651172</v>
+        <v>1477.059072784988</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>622.1327649551154</v>
+        <v>691.56687933201</v>
       </c>
       <c r="C42" t="n">
-        <v>569.3171645922886</v>
+        <v>517.113850050883</v>
       </c>
       <c r="D42" t="n">
-        <v>420.3827549310373</v>
+        <v>368.1794403896317</v>
       </c>
       <c r="E42" t="n">
-        <v>261.1452999255818</v>
+        <v>368.1794403896317</v>
       </c>
       <c r="F42" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G42" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H42" t="n">
         <v>114.6107419524668</v>
@@ -7493,10 +7493,10 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K42" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L42" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M42" t="n">
         <v>974.4476973832902</v>
@@ -7514,28 +7514,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R42" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S42" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T42" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U42" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V42" t="n">
-        <v>1460.197257673872</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W42" t="n">
-        <v>1205.95990094567</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X42" t="n">
-        <v>998.1084007401373</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y42" t="n">
-        <v>790.3481019751835</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2344.749822082216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C43" t="n">
-        <v>2175.813639154309</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D43" t="n">
-        <v>2025.696999741974</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E43" t="n">
-        <v>2025.696999741974</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F43" t="n">
-        <v>1878.807052244063</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G43" t="n">
-        <v>1878.807052244063</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H43" t="n">
-        <v>1878.807052244063</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J43" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K43" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L43" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M43" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N43" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O43" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T43" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U43" t="n">
-        <v>2344.749822082216</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V43" t="n">
-        <v>2344.749822082216</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W43" t="n">
-        <v>2344.749822082216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X43" t="n">
-        <v>2344.749822082216</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y43" t="n">
-        <v>2344.749822082216</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1120.171346690232</v>
+        <v>1159.911464587051</v>
       </c>
       <c r="C44" t="n">
-        <v>751.2088297498206</v>
+        <v>790.948947646639</v>
       </c>
       <c r="D44" t="n">
-        <v>623.2194825945925</v>
+        <v>432.6832490398886</v>
       </c>
       <c r="E44" t="n">
-        <v>623.2194825945925</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L44" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M44" t="n">
         <v>1190.549107376119</v>
@@ -7672,28 +7672,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R44" t="n">
-        <v>2270.376276991246</v>
+        <v>2289.419291897098</v>
       </c>
       <c r="S44" t="n">
-        <v>2270.376276991246</v>
+        <v>2289.419291897098</v>
       </c>
       <c r="T44" t="n">
-        <v>2270.376276991246</v>
+        <v>2289.419291897098</v>
       </c>
       <c r="U44" t="n">
-        <v>2270.376276991246</v>
+        <v>2289.419291897098</v>
       </c>
       <c r="V44" t="n">
-        <v>2270.376276991246</v>
+        <v>2289.419291897098</v>
       </c>
       <c r="W44" t="n">
-        <v>2270.376276991246</v>
+        <v>1936.650636626984</v>
       </c>
       <c r="X44" t="n">
-        <v>1896.910518730166</v>
+        <v>1936.650636626984</v>
       </c>
       <c r="Y44" t="n">
-        <v>1506.771186754354</v>
+        <v>1546.511304651172</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C45" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D45" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E45" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F45" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G45" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H45" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I45" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J45" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K45" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L45" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M45" t="n">
-        <v>974.4476973832902</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N45" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592726</v>
       </c>
       <c r="O45" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P45" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
@@ -7757,22 +7757,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T45" t="n">
-        <v>2055.124177269372</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U45" t="n">
-        <v>1826.94371292353</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y45" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2100.927278923434</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C46" t="n">
-        <v>2100.927278923434</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D46" t="n">
-        <v>2100.927278923434</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E46" t="n">
-        <v>1953.014185341041</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F46" t="n">
-        <v>1953.014185341041</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K46" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L46" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M46" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N46" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O46" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S46" t="n">
-        <v>2328.825700765348</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T46" t="n">
-        <v>2100.927278923434</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U46" t="n">
-        <v>2100.927278923434</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V46" t="n">
-        <v>2100.927278923434</v>
+        <v>274.8845473396617</v>
       </c>
       <c r="W46" t="n">
-        <v>2100.927278923434</v>
+        <v>274.8845473396617</v>
       </c>
       <c r="X46" t="n">
-        <v>2100.927278923434</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y46" t="n">
-        <v>2100.927278923434</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8063,10 +8063,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M3" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8075,10 +8075,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L6" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8309,10 +8309,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>185.4193833999402</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8549,10 +8549,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K12" t="n">
-        <v>47.90390621998491</v>
+        <v>108.5094987082738</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -9005,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>367.8729277488643</v>
       </c>
       <c r="M15" t="n">
-        <v>249.1437329574062</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K18" t="n">
-        <v>47.90390621998491</v>
+        <v>261.497819457984</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613913</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9488,7 +9488,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>309.749325445695</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9497,10 +9497,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>315.495351085342</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9725,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>462.7376461954049</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9971,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>101.9014378473433</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>214.8846069991544</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10208,7 +10208,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>162.5070303356325</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>108.5094987082738</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10445,10 +10445,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>254.8897585970532</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>415.7693643006697</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10913,16 +10913,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>254.8897585970532</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,13 +11141,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>47.90390621998488</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>249.1437329574062</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.800181262745</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K45" t="n">
-        <v>47.90390621998488</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11393,10 +11393,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>315.495351085342</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23263,10 +23263,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>320.401416567412</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
-        <v>149.8404704667354</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>99.50696423532086</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>196.5458070472942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,13 +23433,13 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23469,16 +23469,16 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T13" t="n">
-        <v>168.1224733602596</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>243.1669285369033</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>264.8442918435686</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23506,10 +23506,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>327.0451232326991</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>316.8376071076899</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23585,10 +23585,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23624,13 +23624,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>81.31564129514257</v>
       </c>
       <c r="T15" t="n">
-        <v>137.1803309947772</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>52.94263937656595</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>167.4465608509556</v>
@@ -23676,7 +23676,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T16" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2893338015361</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>303.2495638449901</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>39.01537019863005</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2485578939812</v>
@@ -23797,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23810,13 +23810,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23831,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>18.08665416601305</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23864,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>196.5458070472942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>91.23365050998659</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>26.07392824159854</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23913,7 +23913,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J19" t="n">
-        <v>54.86879163620181</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,22 +23934,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.57441713704631</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R19" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>198.6399683066693</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
         <v>163.6851955497072</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
-        <v>132.4133044538087</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24062,7 +24062,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>98.49313167493756</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -24101,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>159.3462656328124</v>
       </c>
     </row>
     <row r="22">
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>3.890311325868907</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,13 +24144,13 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R22" t="n">
         <v>152.8143555761653</v>
@@ -24180,13 +24180,13 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T22" t="n">
-        <v>225.6194376234954</v>
+        <v>208.7815735241403</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,10 +24214,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>414.089049841944</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006111</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S23" t="n">
-        <v>126.5859368501372</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>217.7829317747374</v>
@@ -24265,7 +24265,7 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>96.55002932624106</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24296,16 +24296,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>91.13188885057184</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>165.5317197306518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24384,7 +24384,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I25" t="n">
-        <v>88.92113609285809</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J25" t="n">
         <v>54.86879163620181</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R25" t="n">
         <v>152.8143555761653</v>
@@ -24420,19 +24420,19 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24451,16 +24451,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
         <v>163.6851955497072</v>
@@ -24496,13 +24496,13 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>154.5237272881575</v>
+        <v>123.0721827559112</v>
       </c>
       <c r="U26" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24527,19 +24527,19 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>120.4210546291172</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>19.10048672639587</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.4465608509556</v>
@@ -24660,13 +24660,13 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>205.1266583349525</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>209.1054558247369</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>337.4387278607413</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>353.6766017770908</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24770,16 +24770,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>45.00739118865397</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24821,13 +24821,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>111.384007536242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24840,16 +24840,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>52.45246356162097</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.4465608509556</v>
@@ -24894,13 +24894,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24919,16 +24919,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>339.8995514646515</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>414.089049841944</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.62980964006113</v>
+        <v>38.9670284802198</v>
       </c>
       <c r="S32" t="n">
         <v>181.3631617334038</v>
@@ -24976,13 +24976,13 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25007,13 +25007,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G33" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
-        <v>99.50696423532086</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
         <v>67.03858805571426</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>10.59835316026789</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H34" t="n">
         <v>157.3867970498209</v>
@@ -25131,19 +25131,19 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>269.6851342372359</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>339.8995514646519</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>197.1155649937336</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25235,13 +25235,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -25250,7 +25250,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>24.56739125194434</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.4339102417605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25356,28 +25356,28 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R37" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U37" t="n">
-        <v>211.7472155662992</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>208.8717912896821</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>212.3352500859092</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>7.378613522730006</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S38" t="n">
         <v>181.3631617334038</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25475,7 +25475,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25484,13 +25484,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>130.2373021845463</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>155.7946237350313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>269.6851342372359</v>
       </c>
       <c r="X40" t="n">
-        <v>208.8717912896817</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>152.3059218470144</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>327.0451232326991</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2485578939812</v>
@@ -25693,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>220.705878451254</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25706,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>8.900471835634107</v>
       </c>
       <c r="C42" t="n">
-        <v>120.4210546291172</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25724,7 +25724,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H42" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.4465608509556</v>
@@ -25806,7 +25806,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
-        <v>45.09682654394315</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J43" t="n">
         <v>54.86879163620181</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R43" t="n">
         <v>152.8143555761653</v>
@@ -25842,13 +25842,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2893338015361</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25870,13 +25870,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>227.9735879370072</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>414.089049841944</v>
@@ -25885,7 +25885,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>18.85258475679447</v>
       </c>
       <c r="S44" t="n">
         <v>181.3631617334038</v>
@@ -25927,10 +25927,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25955,16 +25955,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25997,13 +25997,13 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>130.2784035477362</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26031,13 +26031,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H46" t="n">
         <v>157.3867970498209</v>
@@ -26073,22 +26073,22 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S46" t="n">
-        <v>198.7639881252412</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>208.8717912896821</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>612356.1374574164</v>
+        <v>612356.1374574163</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>612356.1374574166</v>
+        <v>612356.1374574164</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>612356.1374574163</v>
+        <v>612356.1374574164</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>612356.1374574166</v>
+        <v>612356.1374574164</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>612356.1374574166</v>
+        <v>612356.1374574164</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>612356.1374574165</v>
+        <v>612356.1374574164</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>612356.1374574165</v>
+        <v>612356.1374574164</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>612356.1374574164</v>
+        <v>612356.1374574163</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>612356.1374574166</v>
+        <v>612356.1374574163</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>612356.1374574164</v>
+        <v>612356.1374574165</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>330470.1247052693</v>
+        <v>330470.1247052691</v>
       </c>
       <c r="F2" t="n">
-        <v>330470.1247052692</v>
+        <v>330470.1247052691</v>
       </c>
       <c r="G2" t="n">
         <v>330470.1247052692</v>
       </c>
       <c r="H2" t="n">
+        <v>330470.1247052691</v>
+      </c>
+      <c r="I2" t="n">
         <v>330470.1247052692</v>
-      </c>
-      <c r="I2" t="n">
-        <v>330470.1247052691</v>
       </c>
       <c r="J2" t="n">
         <v>330470.1247052692</v>
       </c>
       <c r="K2" t="n">
+        <v>330470.1247052693</v>
+      </c>
+      <c r="L2" t="n">
+        <v>330470.1247052691</v>
+      </c>
+      <c r="M2" t="n">
         <v>330470.1247052692</v>
       </c>
-      <c r="L2" t="n">
-        <v>330470.1247052693</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>330470.1247052691</v>
-      </c>
-      <c r="N2" t="n">
-        <v>330470.1247052693</v>
       </c>
       <c r="O2" t="n">
         <v>330470.1247052692</v>
       </c>
       <c r="P2" t="n">
-        <v>330470.1247052693</v>
+        <v>330470.124705269</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007605</v>
+        <v>86018.533820076</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>295860.2172754402</v>
       </c>
       <c r="D4" t="n">
-        <v>295860.2172754402</v>
+        <v>295860.2172754403</v>
       </c>
       <c r="E4" t="n">
         <v>17955.06337365307</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>88240.18859442725</v>
+        <v>88240.18859442737</v>
       </c>
       <c r="C6" t="n">
-        <v>169009.620125975</v>
+        <v>169009.6201259751</v>
       </c>
       <c r="D6" t="n">
         <v>169009.620125975</v>
       </c>
       <c r="E6" t="n">
-        <v>-75319.00357278307</v>
+        <v>-82626.24283117955</v>
       </c>
       <c r="F6" t="n">
-        <v>270293.3392061697</v>
+        <v>262986.0999477732</v>
       </c>
       <c r="G6" t="n">
-        <v>270293.3392061696</v>
+        <v>262986.0999477733</v>
       </c>
       <c r="H6" t="n">
-        <v>270293.3392061696</v>
+        <v>262986.0999477732</v>
       </c>
       <c r="I6" t="n">
-        <v>270293.3392061695</v>
+        <v>262986.0999477733</v>
       </c>
       <c r="J6" t="n">
-        <v>207233.3966070634</v>
+        <v>199926.157348667</v>
       </c>
       <c r="K6" t="n">
-        <v>270293.3392061697</v>
+        <v>262986.0999477734</v>
       </c>
       <c r="L6" t="n">
-        <v>270293.3392061697</v>
+        <v>262986.0999477732</v>
       </c>
       <c r="M6" t="n">
-        <v>184274.8053860934</v>
+        <v>176967.5661276972</v>
       </c>
       <c r="N6" t="n">
-        <v>270293.3392061697</v>
+        <v>262986.0999477732</v>
       </c>
       <c r="O6" t="n">
-        <v>270293.3392061696</v>
+        <v>262986.0999477733</v>
       </c>
       <c r="P6" t="n">
-        <v>270293.3392061697</v>
+        <v>262986.0999477731</v>
       </c>
     </row>
   </sheetData>
@@ -26758,7 +26758,7 @@
         <v>301.9048087062787</v>
       </c>
       <c r="I3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="J3" t="n">
         <v>301.9048087062786</v>
@@ -26776,7 +26776,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="O3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="P3" t="n">
         <v>301.9048087062787</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>345.1731666428951</v>
+        <v>345.173166642895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1731666428951</v>
+        <v>345.173166642895</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1731666428951</v>
+        <v>345.173166642895</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>385.0216197318741</v>
+        <v>331.7898455187701</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27423,16 +27423,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -27466,19 +27466,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,25 +27508,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>131.6398098402761</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>24.3113733128061</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>35.51648688708399</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,19 +27627,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>312.2938397833332</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,13 +27660,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>159.1343663308174</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27706,16 +27706,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27754,13 +27754,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>8.205114924744777</v>
       </c>
       <c r="W6" t="n">
-        <v>20.6686947516915</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>15.96843579630763</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27827,7 +27827,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>271.2646476345373</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27897,31 +27897,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>208.0806256240705</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,22 +27931,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -27955,7 +27955,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27991,16 +27991,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>48.16969849197108</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>187.3495740374776</v>
       </c>
     </row>
     <row r="10">
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>37.22501299855256</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28067,7 +28067,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -32232,25 +32232,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I17" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J17" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K17" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L17" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M17" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N17" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O17" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P17" t="n">
         <v>174.5298045144673</v>
@@ -32259,16 +32259,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R17" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S17" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T17" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H18" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I18" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J18" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K18" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L18" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M18" t="n">
         <v>164.5381207449218</v>
@@ -32335,7 +32335,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q18" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R18" t="n">
         <v>40.31853275515171</v>
@@ -32344,10 +32344,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T18" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H19" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I19" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J19" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K19" t="n">
-        <v>63.25153205354491</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L19" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M19" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N19" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O19" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P19" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q19" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R19" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S19" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T19" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I23" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J23" t="n">
         <v>103.0102241525006</v>
@@ -32727,22 +32727,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P23" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q23" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R23" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S23" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T23" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U23" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H24" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I24" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J24" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K24" t="n">
         <v>104.8606541711232</v>
@@ -32797,25 +32797,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M24" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N24" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O24" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P24" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q24" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R24" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S24" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T24" t="n">
         <v>2.617457728311981</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H25" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I25" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J25" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K25" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L25" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M25" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N25" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O25" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P25" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q25" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R25" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S25" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T25" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I41" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J41" t="n">
         <v>103.0102241525006</v>
@@ -34149,22 +34149,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P41" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q41" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R41" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S41" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T41" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U41" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H42" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I42" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J42" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K42" t="n">
         <v>104.8606541711232</v>
@@ -34219,25 +34219,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M42" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N42" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O42" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P42" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q42" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R42" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S42" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T42" t="n">
         <v>2.617457728311981</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H43" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I43" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J43" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K43" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L43" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M43" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N43" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O43" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P43" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q43" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R43" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S43" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T43" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34783,10 +34783,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M3" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34795,10 +34795,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L6" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35029,10 +35029,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>43.28534947792188</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35269,10 +35269,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>14.92312141674913</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L12" t="n">
         <v>373.2840556651353</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>231.4844522093428</v>
       </c>
       <c r="L15" t="n">
-        <v>373.2840556651353</v>
+        <v>370.3166381105403</v>
       </c>
       <c r="M15" t="n">
-        <v>271.5478197803097</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N15" t="n">
         <v>516.8936174628016</v>
@@ -35746,7 +35746,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K17" t="n">
         <v>258.4411848848628</v>
@@ -35892,13 +35892,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M17" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N17" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O17" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P17" t="n">
         <v>265.0955169306804</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>14.92312141674913</v>
+        <v>228.5170346547482</v>
       </c>
       <c r="L18" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M18" t="n">
         <v>488.1091505729034</v>
@@ -35983,7 +35983,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L19" t="n">
         <v>108.5302095485535</v>
@@ -36059,7 +36059,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P19" t="n">
-        <v>63.12350311781691</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36208,7 +36208,7 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M21" t="n">
-        <v>332.1534122685986</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N21" t="n">
         <v>516.8936174628016</v>
@@ -36217,10 +36217,10 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P21" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092566</v>
       </c>
       <c r="Q21" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K23" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L23" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M23" t="n">
         <v>432.2802359107712</v>
@@ -36372,13 +36372,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O23" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P23" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q23" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K24" t="n">
-        <v>231.4844522093429</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L24" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M24" t="n">
-        <v>485.1417330183085</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N24" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O24" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P24" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L25" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M25" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N25" t="n">
         <v>127.4430518046842</v>
@@ -36533,7 +36533,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P25" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651353</v>
@@ -36691,10 +36691,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P27" t="n">
-        <v>91.93015837125802</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q27" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>231.4844522093428</v>
       </c>
       <c r="L30" t="n">
-        <v>217.3283173608305</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M30" t="n">
         <v>488.1091505729034</v>
@@ -36928,7 +36928,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P30" t="n">
-        <v>308.4914891638518</v>
+        <v>152.5357508595472</v>
       </c>
       <c r="Q30" t="n">
         <v>152.98832074971</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>231.4844522093428</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651353</v>
@@ -37165,10 +37165,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P33" t="n">
-        <v>244.9184791209679</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L36" t="n">
         <v>373.2840556651353</v>
@@ -37396,7 +37396,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N36" t="n">
-        <v>453.3206074199177</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O36" t="n">
         <v>405.7701329255822</v>
@@ -37633,16 +37633,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N39" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O39" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P39" t="n">
-        <v>244.9184791209679</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K41" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L41" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M41" t="n">
         <v>432.2802359107712</v>
@@ -37794,13 +37794,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O41" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P41" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q41" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.60559248828884</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K42" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M42" t="n">
-        <v>488.1091505729034</v>
+        <v>271.5478197803097</v>
       </c>
       <c r="N42" t="n">
         <v>516.8936174628016</v>
       </c>
       <c r="O42" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P42" t="n">
         <v>308.4914891638518</v>
@@ -37940,13 +37940,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L43" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M43" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N43" t="n">
         <v>127.4430518046842</v>
@@ -37955,7 +37955,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P43" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O44" t="n">
-        <v>355.1946887874302</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P44" t="n">
         <v>265.0955169306804</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651353</v>
@@ -38113,10 +38113,10 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P45" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092566</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
